--- a/DS/LEGENDA.xlsx
+++ b/DS/LEGENDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prova\Desktop\prova app\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AECC195-4F89-4B36-B7C2-A677988A237D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D369227A-0269-421C-A9F2-31EB2DD45DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="53">
   <si>
     <t>Nome</t>
   </si>
@@ -145,18 +145,9 @@
     <t>Rosa</t>
   </si>
   <si>
-    <t>Staff</t>
-  </si>
-  <si>
     <t>Statistiche</t>
   </si>
   <si>
-    <t>Calendario</t>
-  </si>
-  <si>
-    <t>Classifica</t>
-  </si>
-  <si>
     <t>Schemi</t>
   </si>
   <si>
@@ -182,6 +173,18 @@
   </si>
   <si>
     <t>Performance</t>
+  </si>
+  <si>
+    <t>Campionato</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Società</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,10 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -303,6 +309,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -451,10 +460,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6F526DC-DBD1-411F-A9A8-60DFCCCEBEAF}" name="Tabella2" displayName="Tabella2" ref="A1:D14" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F6F526DC-DBD1-411F-A9A8-60DFCCCEBEAF}" name="Tabella2" displayName="Tabella2" ref="A1:D14" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:D14" xr:uid="{F6F526DC-DBD1-411F-A9A8-60DFCCCEBEAF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84F1149A-31E2-40D5-8096-94F38CF30DB2}" name="ID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{84F1149A-31E2-40D5-8096-94F38CF30DB2}" name="ID" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{9B313384-7C44-4345-8652-D4A0A8F16F44}" name="Nome"/>
     <tableColumn id="3" xr3:uid="{FBA12913-BD9B-4A29-92AC-B071B39EF46B}" name="Ruolo_Giocatore"/>
     <tableColumn id="4" xr3:uid="{ACD44049-EC9B-43BE-B1F8-8E221A6110E7}" name="Ruolo_Accesso"/>
@@ -464,10 +473,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{17E9A9D4-8E5A-482C-8CF9-B557B751D41C}" name="Tabella3" displayName="Tabella3" ref="F1:H14" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{17E9A9D4-8E5A-482C-8CF9-B557B751D41C}" name="Tabella3" displayName="Tabella3" ref="F1:H14" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="F1:H14" xr:uid="{17E9A9D4-8E5A-482C-8CF9-B557B751D41C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{45C49C84-742D-4F88-9E24-8B545BF8B014}" name="ID" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{45C49C84-742D-4F88-9E24-8B545BF8B014}" name="ID" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{EAE920F7-A57D-4A13-99AC-AE9C95D0CA5B}" name="Email"/>
     <tableColumn id="3" xr3:uid="{B1C2B9E8-0E13-43A0-8973-98A78E8E92E0}" name="Ruolo_Accesso"/>
   </tableColumns>
@@ -476,10 +485,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F344605D-95A7-4DE8-B7BB-D537D63544C9}" name="Tabella5" displayName="Tabella5" ref="J1:M14" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F344605D-95A7-4DE8-B7BB-D537D63544C9}" name="Tabella5" displayName="Tabella5" ref="J1:M14" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="J1:M14" xr:uid="{F344605D-95A7-4DE8-B7BB-D537D63544C9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{107D78CD-FEB5-426F-901D-FEFBC17E9587}" name="ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{107D78CD-FEB5-426F-901D-FEFBC17E9587}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A3AE990D-CE4D-4715-AD7D-B771B2300611}" name="Dirigente_Tecnico"/>
     <tableColumn id="3" xr3:uid="{7178713E-F2AB-4E9D-9EC2-9002D9E2A719}" name="Email"/>
     <tableColumn id="4" xr3:uid="{693F3E4A-882B-4891-B533-203E0647AA8D}" name="Ruolo_Accesso"/>
@@ -489,18 +498,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D2C40C2-D410-49EE-9FCA-5E8A7EB24BBF}" name="Tabella1" displayName="Tabella1" ref="A1:K8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:K8" xr:uid="{0D2C40C2-D410-49EE-9FCA-5E8A7EB24BBF}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D2C40C2-D410-49EE-9FCA-5E8A7EB24BBF}" name="Tabella1" displayName="Tabella1" ref="A1:L8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:L8" xr:uid="{0D2C40C2-D410-49EE-9FCA-5E8A7EB24BBF}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{C328BA83-6257-4199-A781-79C775E93CA8}" name="Ruolo_Accesso"/>
     <tableColumn id="2" xr3:uid="{0D5A4DD8-E8D1-4977-8178-1579F98CDEDA}" name="Home"/>
-    <tableColumn id="3" xr3:uid="{A03BBF54-05FE-4D61-A874-1C9DD356AEEB}" name="Rosa"/>
-    <tableColumn id="4" xr3:uid="{8200222A-DEAE-4BF1-893F-00C961B0DB09}" name="Staff"/>
+    <tableColumn id="3" xr3:uid="{A03BBF54-05FE-4D61-A874-1C9DD356AEEB}" name="Società"/>
+    <tableColumn id="4" xr3:uid="{8200222A-DEAE-4BF1-893F-00C961B0DB09}" name="Rosa"/>
     <tableColumn id="5" xr3:uid="{5288B256-362B-437F-B137-7A4155B132BB}" name="Statistiche"/>
-    <tableColumn id="6" xr3:uid="{F6E13BF8-597A-4F65-95C4-3421E26FDCBF}" name="Calendario"/>
-    <tableColumn id="7" xr3:uid="{1A839C6B-8370-4581-BDE8-3A5994C5296E}" name="Classifica"/>
+    <tableColumn id="6" xr3:uid="{F6E13BF8-597A-4F65-95C4-3421E26FDCBF}" name="Campionato"/>
     <tableColumn id="8" xr3:uid="{C68AF5F4-D05B-4160-9B70-A6B7B63EA588}" name="Schemi"/>
+    <tableColumn id="12" xr3:uid="{D5B8286A-1EB5-49DF-9C7E-CB7122566D04}" name="Sponsor" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{E4A5EE80-FF66-46FC-89B4-BFE9E06DCE6E}" name="Relazioni"/>
+    <tableColumn id="13" xr3:uid="{0BBD8641-E564-4E60-BAFC-3C551D020D34}" name="Privacy" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{3888B07D-5F8D-4594-BDF6-FFB767AB82E8}" name="Setup"/>
     <tableColumn id="11" xr3:uid="{B99D84AC-7950-4CA5-A8EF-CBD99F68670E}" name="Performance"/>
   </tableColumns>
@@ -1177,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1207,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,14 +1230,15 @@
     <col min="3" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1235,286 +1246,310 @@
         <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:L8">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"False"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:K8" xr:uid="{769722A8-24C1-48B7-AAAA-B74891E07B78}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:L8" xr:uid="{769722A8-24C1-48B7-AAAA-B74891E07B78}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
